--- a/Results/experiments 07.02.20.xlsx
+++ b/Results/experiments 07.02.20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikitabelyak/Dropbox (Aalto)/p_Lagrangian_Decomposition-/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7B77A0-5856-EB40-84F5-291898350327}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC876602-80A8-1040-9C5E-6D5358262E10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33600" yWindow="-2320" windowWidth="38400" windowHeight="24000" activeTab="1" xr2:uid="{68F370A6-A19C-F849-A1F6-4179A524AF82}"/>
   </bookViews>
@@ -1924,7 +1924,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="226" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
